--- a/voting_classifier_sampling_comparison.xlsx
+++ b/voting_classifier_sampling_comparison.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7829</v>
+        <v>0.8092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6027</v>
+        <v>0.6268</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7764</v>
+        <v>0.798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7829</v>
+        <v>0.8092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7723</v>
+        <v>0.7922</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9423</v>
+        <v>0.9426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8052</v>
+        <v>0.8056</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7895</v>
+        <v>0.8092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6078</v>
+        <v>0.6268</v>
       </c>
       <c r="E3" t="n">
-        <v>0.779</v>
+        <v>0.798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7895</v>
+        <v>0.8092</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.7922</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9419</v>
+        <v>0.9416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8047</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="4">
@@ -561,22 +561,22 @@
         <v>0.7763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6546</v>
+        <v>0.6618000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7822</v>
+        <v>0.7876</v>
       </c>
       <c r="F4" t="n">
         <v>0.7763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7894</v>
+        <v>0.8055</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9394</v>
+        <v>0.9419</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8078</v>
+        <v>0.8134</v>
       </c>
     </row>
     <row r="5">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6711</v>
+        <v>0.7039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5742</v>
+        <v>0.6116</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6808999999999999</v>
+        <v>0.7163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6711</v>
+        <v>0.7039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.769</v>
+        <v>0.7905</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9225</v>
+        <v>0.9245</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7731</v>
+        <v>0.7828000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -627,19 +627,19 @@
         <v>0.7368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.623</v>
+        <v>0.6133999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7553</v>
+        <v>0.7538</v>
       </c>
       <c r="F6" t="n">
         <v>0.7368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7934</v>
+        <v>0.7844</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9368</v>
       </c>
       <c r="I6" t="n">
         <v>0.8014</v>
